--- a/Projects/CCZA/Data/Template.xlsx
+++ b/Projects/CCZA/Data/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="4800" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="4800" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4348" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="390">
   <si>
     <t>Store types weight</t>
   </si>
@@ -1184,9 +1184,6 @@
     <t>What is the unit price for KO Water 500ml Pet?</t>
   </si>
   <si>
-    <t>HV 71 IC Cooler, IC Cooler, IC BRE - Tillpoint, IC FLC, HV 71 WATER NRG, ERE Water_Energy</t>
-  </si>
-  <si>
     <t>Is there a stills promotion poster in outlet?</t>
   </si>
   <si>
@@ -1197,6 +1194,27 @@
   </si>
   <si>
     <t>What is the unit price for Monster 500ml can?</t>
+  </si>
+  <si>
+    <t>FLC 2 of 3</t>
+  </si>
+  <si>
+    <t>FLC - 2 of 3 NON SHP/CHK</t>
+  </si>
+  <si>
+    <t>SHP/CHK</t>
+  </si>
+  <si>
+    <t>FLC - 2 of 3 SHP/CHK</t>
+  </si>
+  <si>
+    <t>FLC 1 of 3</t>
+  </si>
+  <si>
+    <t>FLC - 1 of 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV 71 IC Cooler, IC Cooler, IC ERE - Tillpoint, IC FLC, HV 71 WATER NRG, ERE Water_Energy, ERE Sports_Tea, FLC - 1 of 3, FLC - 2 of 3 NON SHP/CHK, FLC - 2 of 3 SHP/CHK, FLC - 3 of 3, HV71 &amp; FV200 IC Cooler, HV71 SPORTS TEA </t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1305,6 +1323,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2014,7 +2044,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2717,6 +2747,12 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -16742,8 +16778,8 @@
   </sheetPr>
   <dimension ref="B3:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17891,7 +17927,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D21" s="197">
         <v>50</v>
@@ -19028,7 +19064,7 @@
   <dimension ref="B3:V37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19043,7 +19079,7 @@
     <col min="8" max="8" width="8.5703125"/>
     <col min="9" max="9" width="9.28515625"/>
     <col min="10" max="10" width="10.42578125"/>
-    <col min="11" max="11" width="8.5703125"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375"/>
     <col min="13" max="14" width="8.5703125"/>
     <col min="15" max="15" width="11.28515625"/>
@@ -20183,7 +20219,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D21" s="204">
         <v>50</v>
@@ -21294,10 +21330,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AE37"/>
+  <dimension ref="B3:AE46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21931,16 +21967,16 @@
         <v>44</v>
       </c>
       <c r="C11" s="195" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D11" s="196" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="196" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="196" t="s">
         <v>381</v>
-      </c>
-      <c r="F11" s="196" t="s">
-        <v>382</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
@@ -22646,7 +22682,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="139" t="s">
         <v>45</v>
       </c>
@@ -22660,7 +22696,7 @@
         <v>350</v>
       </c>
       <c r="F20" s="196" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
@@ -22728,7 +22764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="139" t="s">
         <v>45</v>
       </c>
@@ -22742,7 +22778,7 @@
         <v>350</v>
       </c>
       <c r="F21" s="196" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
@@ -22972,7 +23008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="139" t="s">
         <v>45</v>
       </c>
@@ -22986,7 +23022,7 @@
         <v>350</v>
       </c>
       <c r="F24" s="196" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -24092,11 +24128,46 @@
       <c r="AD37" s="58"/>
       <c r="AE37" s="58"/>
     </row>
+    <row r="38" spans="2:31" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F38" s="248" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F39" s="249" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F41" s="248" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F42" s="248" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F43" s="249" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F45" s="248" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F46" s="249" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCZA/Data/Template.xlsx
+++ b/Projects/CCZA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,6 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">list_of_entities!$B$4:$AB$4</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">list_of_entities!$B$4:$AB$128</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">list_of_entities!$B$4:$AB$128</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">list_of_entities!$B$4:$AB$128</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4328" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="384">
   <si>
     <t xml:space="preserve">Store types weight</t>
   </si>
@@ -1744,7 +1745,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="242">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2570,6 +2571,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2801,29 +2810,29 @@
   </sheetPr>
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="5.89068825910931"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.7813765182186"/>
@@ -3720,31 +3729,31 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="82.2672064777328"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="82.9109311740891"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="1" width="9.10526315789474"/>
@@ -13774,26 +13783,26 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="124.14979757085"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="125.222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="5.89068825910931"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.7813765182186"/>
@@ -15276,18 +15285,18 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="5.89068825910931"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.7813765182186"/>
@@ -16371,18 +16380,18 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="160" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="160" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="160" width="56.663967611336"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="160" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="160" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="160" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="160" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="160" width="57.0931174089069"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="160" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="160" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="160" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="160" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="160" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="160" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="160" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="160" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="160" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="160" width="5.89068825910931"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="160" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="160" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="160" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="160" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="160" width="11.7813765182186"/>
@@ -18766,18 +18775,18 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.89068825910931"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.7813765182186"/>
@@ -21152,35 +21161,35 @@
   </sheetPr>
   <dimension ref="B1:AE46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.9109311740891"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="83.6599190283401"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="206.526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="208.453441295547"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="5.89068825910931"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="11.7813765182186"/>
@@ -21649,11 +21658,11 @@
         <v>62</v>
       </c>
       <c r="M8" s="158"/>
-      <c r="N8" s="154" t="n">
-        <v>40</v>
-      </c>
-      <c r="O8" s="121" t="n">
-        <v>40</v>
+      <c r="N8" s="207" t="n">
+        <v>50</v>
+      </c>
+      <c r="O8" s="208" t="n">
+        <v>50</v>
       </c>
       <c r="P8" s="121" t="n">
         <v>100</v>
@@ -21676,14 +21685,14 @@
       <c r="V8" s="121" t="n">
         <v>40</v>
       </c>
-      <c r="W8" s="121" t="n">
-        <v>25</v>
-      </c>
-      <c r="X8" s="121" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y8" s="121" t="n">
-        <v>25</v>
+      <c r="W8" s="208" t="n">
+        <v>50</v>
+      </c>
+      <c r="X8" s="208" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="208" t="n">
+        <v>50</v>
       </c>
       <c r="Z8" s="121" t="n">
         <v>100</v>
@@ -21811,11 +21820,11 @@
         <v>62</v>
       </c>
       <c r="M10" s="158"/>
-      <c r="N10" s="154" t="n">
-        <v>40</v>
-      </c>
-      <c r="O10" s="121" t="n">
-        <v>40</v>
+      <c r="N10" s="207" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="208" t="s">
+        <v>62</v>
       </c>
       <c r="P10" s="121" t="s">
         <v>62</v>
@@ -21838,14 +21847,14 @@
       <c r="V10" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="W10" s="121" t="n">
-        <v>25</v>
-      </c>
-      <c r="X10" s="121" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y10" s="121" t="n">
-        <v>25</v>
+      <c r="W10" s="208" t="s">
+        <v>62</v>
+      </c>
+      <c r="X10" s="208" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="208" t="s">
+        <v>62</v>
       </c>
       <c r="Z10" s="121" t="s">
         <v>62</v>
@@ -21890,12 +21899,12 @@
       <c r="L11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="207"/>
-      <c r="N11" s="154" t="n">
-        <v>20</v>
-      </c>
-      <c r="O11" s="121" t="n">
-        <v>20</v>
+      <c r="M11" s="209"/>
+      <c r="N11" s="207" t="n">
+        <v>50</v>
+      </c>
+      <c r="O11" s="208" t="n">
+        <v>50</v>
       </c>
       <c r="P11" s="121" t="s">
         <v>62</v>
@@ -21950,13 +21959,13 @@
       <c r="B12" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="208" t="s">
+      <c r="C12" s="210" t="s">
         <v>343</v>
       </c>
       <c r="D12" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="209" t="s">
+      <c r="E12" s="211" t="s">
         <v>214</v>
       </c>
       <c r="F12" s="127" t="s">
@@ -21970,7 +21979,7 @@
       <c r="L12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="210"/>
+      <c r="M12" s="212"/>
       <c r="N12" s="154" t="s">
         <v>62</v>
       </c>
@@ -22050,7 +22059,7 @@
       <c r="L13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="211"/>
+      <c r="M13" s="213"/>
       <c r="N13" s="154" t="s">
         <v>62</v>
       </c>
@@ -22107,7 +22116,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="214" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="178" t="s">
@@ -22130,7 +22139,7 @@
       <c r="L14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="211"/>
+      <c r="M14" s="213"/>
       <c r="N14" s="154" t="s">
         <v>62</v>
       </c>
@@ -22187,7 +22196,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="214" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="178" t="s">
@@ -22210,7 +22219,7 @@
       <c r="L15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="211"/>
+      <c r="M15" s="213"/>
       <c r="N15" s="154" t="s">
         <v>62</v>
       </c>
@@ -22267,7 +22276,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="214" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="178" t="s">
@@ -22285,10 +22294,10 @@
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
-      <c r="L16" s="213" t="n">
+      <c r="L16" s="215" t="n">
         <v>32</v>
       </c>
-      <c r="M16" s="211" t="s">
+      <c r="M16" s="213" t="s">
         <v>352</v>
       </c>
       <c r="N16" s="154" t="s">
@@ -22339,7 +22348,7 @@
       <c r="AC16" s="121" t="n">
         <v>100</v>
       </c>
-      <c r="AD16" s="214" t="n">
+      <c r="AD16" s="216" t="n">
         <v>50</v>
       </c>
       <c r="AE16" s="206" t="s">
@@ -22347,28 +22356,28 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="215" t="s">
+      <c r="B17" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="216" t="s">
+      <c r="C17" s="218" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="217" t="s">
+      <c r="D17" s="219" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="217" t="s">
+      <c r="E17" s="219" t="s">
         <v>326</v>
       </c>
-      <c r="F17" s="217"/>
+      <c r="F17" s="219"/>
       <c r="G17" s="146"/>
       <c r="H17" s="146"/>
       <c r="I17" s="146"/>
       <c r="J17" s="146"/>
       <c r="K17" s="146"/>
-      <c r="L17" s="218" t="n">
+      <c r="L17" s="220" t="n">
         <v>33</v>
       </c>
-      <c r="M17" s="219" t="s">
+      <c r="M17" s="221" t="s">
         <v>352</v>
       </c>
       <c r="N17" s="154" t="s">
@@ -22451,7 +22460,7 @@
       <c r="M18" s="204" t="s">
         <v>352</v>
       </c>
-      <c r="N18" s="220" t="n">
+      <c r="N18" s="222" t="n">
         <v>50</v>
       </c>
       <c r="O18" s="149" t="n">
@@ -22469,40 +22478,40 @@
       <c r="S18" s="149" t="n">
         <v>30</v>
       </c>
-      <c r="T18" s="221" t="s">
+      <c r="T18" s="223" t="s">
         <v>62</v>
       </c>
       <c r="U18" s="149" t="n">
         <v>30</v>
       </c>
-      <c r="V18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="W18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="X18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD18" s="221" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE18" s="222" t="s">
+      <c r="V18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE18" s="224" t="s">
         <v>62</v>
       </c>
     </row>
@@ -22531,7 +22540,7 @@
       <c r="M19" s="158" t="s">
         <v>352</v>
       </c>
-      <c r="N19" s="223" t="n">
+      <c r="N19" s="225" t="n">
         <v>20</v>
       </c>
       <c r="O19" s="177" t="n">
@@ -22582,7 +22591,7 @@
       <c r="AD19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE19" s="207" t="s">
+      <c r="AE19" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -22610,7 +22619,7 @@
       <c r="L20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="207" t="n">
+      <c r="M20" s="209" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="154" t="n">
@@ -22664,7 +22673,7 @@
       <c r="AD20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE20" s="207" t="s">
+      <c r="AE20" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -22692,7 +22701,7 @@
       <c r="L21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="207" t="n">
+      <c r="M21" s="209" t="n">
         <v>1</v>
       </c>
       <c r="N21" s="154" t="n">
@@ -22713,7 +22722,7 @@
       <c r="S21" s="121" t="n">
         <v>25</v>
       </c>
-      <c r="T21" s="224" t="n">
+      <c r="T21" s="226" t="n">
         <v>15</v>
       </c>
       <c r="U21" s="121" t="n">
@@ -22746,7 +22755,7 @@
       <c r="AD21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE21" s="207" t="s">
+      <c r="AE21" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -22793,7 +22802,7 @@
       <c r="S22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T22" s="224" t="n">
+      <c r="T22" s="226" t="n">
         <v>20</v>
       </c>
       <c r="U22" s="17" t="s">
@@ -22826,7 +22835,7 @@
       <c r="AD22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE22" s="207" t="s">
+      <c r="AE22" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -22875,7 +22884,7 @@
       <c r="S23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T23" s="224" t="n">
+      <c r="T23" s="226" t="n">
         <v>20</v>
       </c>
       <c r="U23" s="17" t="s">
@@ -22908,7 +22917,7 @@
       <c r="AD23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE23" s="207" t="s">
+      <c r="AE23" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -22957,7 +22966,7 @@
       <c r="S24" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T24" s="224" t="n">
+      <c r="T24" s="226" t="n">
         <v>15</v>
       </c>
       <c r="U24" s="17" t="s">
@@ -22990,7 +22999,7 @@
       <c r="AD24" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE24" s="207" t="s">
+      <c r="AE24" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -22998,7 +23007,7 @@
       <c r="B25" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="225" t="s">
+      <c r="C25" s="227" t="s">
         <v>367</v>
       </c>
       <c r="D25" s="127" t="s">
@@ -23007,7 +23016,7 @@
       <c r="E25" s="127" t="s">
         <v>358</v>
       </c>
-      <c r="F25" s="226" t="s">
+      <c r="F25" s="228" t="s">
         <v>368</v>
       </c>
       <c r="G25" s="47"/>
@@ -23039,7 +23048,7 @@
       <c r="S25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T25" s="224" t="n">
+      <c r="T25" s="226" t="n">
         <v>15</v>
       </c>
       <c r="U25" s="17" t="s">
@@ -23072,7 +23081,7 @@
       <c r="AD25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE25" s="207" t="s">
+      <c r="AE25" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23080,16 +23089,16 @@
       <c r="B26" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="229" t="s">
         <v>369</v>
       </c>
-      <c r="D26" s="228" t="s">
+      <c r="D26" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="228" t="s">
+      <c r="E26" s="230" t="s">
         <v>329</v>
       </c>
-      <c r="F26" s="228" t="s">
+      <c r="F26" s="230" t="s">
         <v>370</v>
       </c>
       <c r="G26" s="47" t="s">
@@ -23131,7 +23140,7 @@
       <c r="S26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="229" t="n">
+      <c r="T26" s="231" t="n">
         <v>15</v>
       </c>
       <c r="U26" s="17" t="s">
@@ -23164,7 +23173,7 @@
       <c r="AD26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE26" s="207" t="s">
+      <c r="AE26" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23172,25 +23181,25 @@
       <c r="B27" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="230" t="s">
+      <c r="C27" s="232" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="231" t="s">
+      <c r="D27" s="233" t="s">
         <v>326</v>
       </c>
-      <c r="E27" s="231" t="s">
+      <c r="E27" s="233" t="s">
         <v>326</v>
       </c>
-      <c r="F27" s="231"/>
+      <c r="F27" s="233"/>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
       <c r="K27" s="66"/>
-      <c r="L27" s="213" t="n">
+      <c r="L27" s="215" t="n">
         <v>30</v>
       </c>
-      <c r="M27" s="211" t="s">
+      <c r="M27" s="213" t="s">
         <v>352</v>
       </c>
       <c r="N27" s="15" t="s">
@@ -23211,7 +23220,7 @@
       <c r="S27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T27" s="224" t="s">
+      <c r="T27" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U27" s="17" t="s">
@@ -23244,7 +23253,7 @@
       <c r="AD27" s="121" t="n">
         <v>100</v>
       </c>
-      <c r="AE27" s="207" t="s">
+      <c r="AE27" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23252,25 +23261,25 @@
       <c r="B28" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="230" t="s">
+      <c r="C28" s="232" t="s">
         <v>372</v>
       </c>
-      <c r="D28" s="231" t="s">
+      <c r="D28" s="233" t="s">
         <v>326</v>
       </c>
-      <c r="E28" s="231" t="s">
+      <c r="E28" s="233" t="s">
         <v>326</v>
       </c>
-      <c r="F28" s="231"/>
+      <c r="F28" s="233"/>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
-      <c r="L28" s="213" t="n">
+      <c r="L28" s="215" t="n">
         <v>35</v>
       </c>
-      <c r="M28" s="211" t="s">
+      <c r="M28" s="213" t="s">
         <v>352</v>
       </c>
       <c r="N28" s="15" t="s">
@@ -23291,7 +23300,7 @@
       <c r="S28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T28" s="224" t="s">
+      <c r="T28" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U28" s="17" t="s">
@@ -23332,7 +23341,7 @@
       <c r="B29" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="230" t="s">
+      <c r="C29" s="232" t="s">
         <v>373</v>
       </c>
       <c r="D29" s="127" t="s">
@@ -23341,7 +23350,7 @@
       <c r="E29" s="127" t="s">
         <v>358</v>
       </c>
-      <c r="F29" s="231" t="s">
+      <c r="F29" s="233" t="s">
         <v>374</v>
       </c>
       <c r="G29" s="47"/>
@@ -23352,7 +23361,7 @@
       <c r="L29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M29" s="211" t="n">
+      <c r="M29" s="213" t="n">
         <v>1</v>
       </c>
       <c r="N29" s="15" t="s">
@@ -23373,7 +23382,7 @@
       <c r="S29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T29" s="224" t="s">
+      <c r="T29" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U29" s="17" t="s">
@@ -23406,7 +23415,7 @@
       <c r="AD29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE29" s="207" t="s">
+      <c r="AE29" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23414,7 +23423,7 @@
       <c r="B30" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="230" t="s">
+      <c r="C30" s="232" t="s">
         <v>375</v>
       </c>
       <c r="D30" s="127" t="s">
@@ -23423,7 +23432,7 @@
       <c r="E30" s="127" t="s">
         <v>358</v>
       </c>
-      <c r="F30" s="231" t="s">
+      <c r="F30" s="233" t="s">
         <v>376</v>
       </c>
       <c r="G30" s="47"/>
@@ -23434,7 +23443,7 @@
       <c r="L30" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M30" s="211" t="n">
+      <c r="M30" s="213" t="n">
         <v>1</v>
       </c>
       <c r="N30" s="15" t="s">
@@ -23455,7 +23464,7 @@
       <c r="S30" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T30" s="224" t="s">
+      <c r="T30" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U30" s="17" t="s">
@@ -23488,7 +23497,7 @@
       <c r="AD30" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE30" s="207" t="s">
+      <c r="AE30" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23496,7 +23505,7 @@
       <c r="B31" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="232" t="s">
+      <c r="C31" s="234" t="s">
         <v>377</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -23522,7 +23531,7 @@
       <c r="L31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="211" t="n">
+      <c r="M31" s="213" t="n">
         <v>1</v>
       </c>
       <c r="N31" s="15" t="s">
@@ -23543,7 +23552,7 @@
       <c r="S31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T31" s="224" t="s">
+      <c r="T31" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U31" s="17" t="s">
@@ -23576,7 +23585,7 @@
       <c r="AD31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE31" s="207" t="s">
+      <c r="AE31" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23584,16 +23593,16 @@
       <c r="B32" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="232" t="s">
+      <c r="C32" s="234" t="s">
         <v>378</v>
       </c>
-      <c r="D32" s="233" t="s">
+      <c r="D32" s="235" t="s">
         <v>326</v>
       </c>
-      <c r="E32" s="233" t="s">
+      <c r="E32" s="235" t="s">
         <v>326</v>
       </c>
-      <c r="F32" s="233"/>
+      <c r="F32" s="235"/>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
       <c r="I32" s="66"/>
@@ -23602,7 +23611,7 @@
       <c r="L32" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="M32" s="211" t="s">
+      <c r="M32" s="213" t="s">
         <v>352</v>
       </c>
       <c r="N32" s="15" t="s">
@@ -23623,7 +23632,7 @@
       <c r="S32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T32" s="224" t="s">
+      <c r="T32" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U32" s="17" t="s">
@@ -23656,7 +23665,7 @@
       <c r="AD32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE32" s="207" t="s">
+      <c r="AE32" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23664,16 +23673,16 @@
       <c r="B33" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="232" t="s">
+      <c r="C33" s="234" t="s">
         <v>379</v>
       </c>
-      <c r="D33" s="234" t="s">
+      <c r="D33" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="233" t="s">
+      <c r="E33" s="235" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="233" t="s">
+      <c r="F33" s="235" t="s">
         <v>380</v>
       </c>
       <c r="G33" s="47"/>
@@ -23690,7 +23699,7 @@
       <c r="L33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="211" t="n">
+      <c r="M33" s="213" t="n">
         <v>1</v>
       </c>
       <c r="N33" s="15" t="s">
@@ -23711,7 +23720,7 @@
       <c r="S33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T33" s="224" t="s">
+      <c r="T33" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U33" s="17" t="s">
@@ -23744,7 +23753,7 @@
       <c r="AD33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE33" s="207" t="s">
+      <c r="AE33" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23752,16 +23761,16 @@
       <c r="B34" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="232" t="s">
+      <c r="C34" s="234" t="s">
         <v>381</v>
       </c>
-      <c r="D34" s="234" t="s">
+      <c r="D34" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="233" t="s">
+      <c r="E34" s="235" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="233" t="s">
+      <c r="F34" s="235" t="s">
         <v>209</v>
       </c>
       <c r="G34" s="47"/>
@@ -23778,7 +23787,7 @@
       <c r="L34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="211" t="n">
+      <c r="M34" s="213" t="n">
         <v>1</v>
       </c>
       <c r="N34" s="15" t="s">
@@ -23799,7 +23808,7 @@
       <c r="S34" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T34" s="224" t="s">
+      <c r="T34" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U34" s="17" t="s">
@@ -23832,7 +23841,7 @@
       <c r="AD34" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE34" s="207" t="s">
+      <c r="AE34" s="209" t="s">
         <v>62</v>
       </c>
     </row>
@@ -23840,16 +23849,16 @@
       <c r="B35" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="232" t="s">
+      <c r="C35" s="234" t="s">
         <v>382</v>
       </c>
-      <c r="D35" s="234" t="s">
+      <c r="D35" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="233" t="s">
+      <c r="E35" s="235" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="233" t="s">
+      <c r="F35" s="235" t="s">
         <v>199</v>
       </c>
       <c r="G35" s="47"/>
@@ -23866,7 +23875,7 @@
       <c r="L35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M35" s="211" t="n">
+      <c r="M35" s="213" t="n">
         <v>1</v>
       </c>
       <c r="N35" s="15" t="s">
@@ -23887,7 +23896,7 @@
       <c r="S35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T35" s="224" t="s">
+      <c r="T35" s="226" t="s">
         <v>62</v>
       </c>
       <c r="U35" s="17" t="s">
@@ -23920,24 +23929,24 @@
       <c r="AD35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AE35" s="207" t="s">
+      <c r="AE35" s="209" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="215" t="s">
+      <c r="B36" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="235" t="s">
+      <c r="C36" s="237" t="s">
         <v>383</v>
       </c>
-      <c r="D36" s="236" t="s">
+      <c r="D36" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="236" t="s">
+      <c r="E36" s="238" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="236" t="s">
+      <c r="F36" s="238" t="s">
         <v>213</v>
       </c>
       <c r="G36" s="146"/>
@@ -23954,61 +23963,61 @@
       <c r="L36" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="M36" s="219" t="n">
+      <c r="M36" s="221" t="n">
         <v>1</v>
       </c>
-      <c r="N36" s="237" t="s">
-        <v>62</v>
-      </c>
-      <c r="O36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="P36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="R36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="S36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="T36" s="238" t="s">
-        <v>62</v>
-      </c>
-      <c r="U36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="V36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="W36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="X36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB36" s="218" t="s">
+      <c r="N36" s="239" t="s">
+        <v>62</v>
+      </c>
+      <c r="O36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="R36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="S36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="T36" s="240" t="s">
+        <v>62</v>
+      </c>
+      <c r="U36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="V36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="W36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="X36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB36" s="220" t="s">
         <v>62</v>
       </c>
       <c r="AC36" s="145" t="n">
         <v>33</v>
       </c>
-      <c r="AD36" s="218" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE36" s="239" t="s">
+      <c r="AD36" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE36" s="241" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Projects/CCZA/Data/Template.xlsx
+++ b/Projects/CCZA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,18 +38,24 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">list_of_entities!$B$4:$AB$4</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">list_of_entities!$B$4:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">list_of_entities!$B$4:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">list_of_entities!$B$4:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">sos_weights!$B$4:$AC$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">sos_weights!$B$4:$AC$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sos_weights!$B$4:$AC$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">sos_targets!$B$4:$U$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">sos_targets!$B$4:$U$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sos_targets!$B$4:$U$19</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Pricing_weights!$B$4:$V$39</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Pricing_weights!$B$4:$V$43</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Pricing_weights!$B$4:$V$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Pricing_weights!$B$4:$V$43</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">Pricing_targets!$B$4:$V$39</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Pricing_targets!$B$4:$V$43</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Pricing_targets!$B$4:$V$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Pricing_targets!$B$4:$V$43</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">survey_questions!$B$4:$AE$37</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">survey_questions!$B$4:$AE$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">survey_questions!$B$4:$AE$37</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -882,7 +888,7 @@
     <t xml:space="preserve">Sparkling Forward Share Achieve 50%</t>
   </si>
   <si>
-    <t xml:space="preserve">COCA-COLA, COCA COLA PLUS COFFEE, COKE ZERO, COKE LIGHT, COCA COLA NO SUGAR NO CAFFEINE,  TAB</t>
+    <t xml:space="preserve">COCA-COLA, COCA COLA PLUS COFFEE, COKE ZERO, COKE LIGHT, COCA COLA NO SUGAR NO CAFFEINE, TAB</t>
   </si>
   <si>
     <t xml:space="preserve">Category, Manufacturer</t>
@@ -2913,17 +2919,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3155,9 +3151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>389880</xdr:colOff>
+      <xdr:colOff>389520</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3167,7 +3163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10648080" cy="9171720"/>
+          <a:ext cx="10695240" cy="9171360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3211,13 +3207,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.6720647773279"/>
     <col collapsed="false" hidden="false" max="21" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="23" min="22" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.57085020242915"/>
@@ -4112,10 +4108,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.1295546558704"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.57085020242915"/>
@@ -15698,22 +15694,22 @@
   </sheetPr>
   <dimension ref="B2:AC21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="29" min="12" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
@@ -15924,7 +15920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="106" t="s">
         <v>31</v>
       </c>
@@ -17269,16 +17265,16 @@
   <dimension ref="B3:U21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3481781376518"/>
     <col collapsed="false" hidden="false" max="19" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -18414,8 +18410,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.7732793522267"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="22" min="5" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
@@ -21272,8 +21268,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="22" min="5" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
@@ -24133,18 +24129,18 @@
   </sheetPr>
   <dimension ref="B3:AE38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="90.1943319838057"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="91.0526315789474"/>
     <col collapsed="false" hidden="false" max="30" min="7" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="8.57085020242915"/>
   </cols>
